--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="205">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -648,6 +648,12 @@
   </si>
   <si>
     <t xml:space="preserve">researcher presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on portfolio, recorded powerpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submitted biweekly, alyssa’s presentation</t>
   </si>
 </sst>
 </file>
@@ -887,10 +893,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I236"/>
+  <dimension ref="A1:I238"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A219" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E237" activeCellId="0" sqref="E237"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A214" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E239" activeCellId="0" sqref="E239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -898,7 +904,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="73.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="73.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.5"/>
   </cols>
@@ -951,15 +957,15 @@
       </c>
       <c r="G2" s="4" t="n">
         <f aca="true">CEILING(NOW()-A124, 1)</f>
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H2" s="5" t="n">
-        <f aca="false">(SUM(D218:D234))*24</f>
-        <v>16</v>
+        <f aca="false">(SUM(D218:D240))*24</f>
+        <v>20.25</v>
       </c>
       <c r="I2" s="3" t="n">
         <f aca="false">H2/(G2*24)</f>
-        <v>0.00490196078431373</v>
+        <v>0.00607014388489209</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5231,6 +5237,42 @@
       </c>
       <c r="E236" s="0" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="n">
+        <v>44339</v>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="C237" s="2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D237" s="3" t="n">
+        <f aca="false">C237-B237</f>
+        <v>0.09375</v>
+      </c>
+      <c r="E237" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="n">
+        <v>44340</v>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C238" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D238" s="3" t="n">
+        <f aca="false">C238-B238</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E238" s="0" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="206">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -654,6 +654,9 @@
   </si>
   <si>
     <t xml:space="preserve">submitted biweekly, alyssa’s presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santiago’s presentation</t>
   </si>
 </sst>
 </file>
@@ -893,10 +896,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I238"/>
+  <dimension ref="A1:I239"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A214" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E239" activeCellId="0" sqref="E239"/>
+      <selection pane="topLeft" activeCell="E240" activeCellId="0" sqref="E240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -957,15 +960,15 @@
       </c>
       <c r="G2" s="4" t="n">
         <f aca="true">CEILING(NOW()-A124, 1)</f>
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H2" s="5" t="n">
         <f aca="false">(SUM(D218:D240))*24</f>
-        <v>20.25</v>
+        <v>21</v>
       </c>
       <c r="I2" s="3" t="n">
         <f aca="false">H2/(G2*24)</f>
-        <v>0.00607014388489209</v>
+        <v>0.00595238095238095</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5273,6 +5276,24 @@
       </c>
       <c r="E238" s="0" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="n">
+        <v>44348</v>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C239" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D239" s="3" t="n">
+        <f aca="false">C239-B239</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E239" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="208">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -657,6 +657,12 @@
   </si>
   <si>
     <t xml:space="preserve">Santiago’s presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noah presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maya presentation</t>
   </si>
 </sst>
 </file>
@@ -896,10 +902,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I239"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A214" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E240" activeCellId="0" sqref="E240"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A216" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E244" activeCellId="0" sqref="E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -960,15 +966,15 @@
       </c>
       <c r="G2" s="4" t="n">
         <f aca="true">CEILING(NOW()-A124, 1)</f>
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H2" s="5" t="n">
         <f aca="false">(SUM(D218:D240))*24</f>
-        <v>21</v>
+        <v>21.75</v>
       </c>
       <c r="I2" s="3" t="n">
         <f aca="false">H2/(G2*24)</f>
-        <v>0.00595238095238095</v>
+        <v>0.00592320261437908</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5296,6 +5302,79 @@
         <v>205</v>
       </c>
     </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="n">
+        <v>44349</v>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C240" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D240" s="3" t="n">
+        <f aca="false">C240-B240</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E240" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="n">
+        <v>44350</v>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C241" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D241" s="3" t="n">
+        <f aca="false">C241-B241</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E241" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="n">
+        <v>44351</v>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C242" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D242" s="3" t="n">
+        <f aca="false">C242-B242</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E242" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="n">
+        <v>44354</v>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C243" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D243" s="3" t="n">
+        <f aca="false">C243-B243</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E243" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="209">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -663,6 +663,9 @@
   </si>
   <si>
     <t xml:space="preserve">maya presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`</t>
   </si>
 </sst>
 </file>
@@ -902,10 +905,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I244"/>
+  <dimension ref="A1:I246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A216" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E244" activeCellId="0" sqref="E244"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A220" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E247" activeCellId="0" sqref="E247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -966,7 +969,7 @@
       </c>
       <c r="G2" s="4" t="n">
         <f aca="true">CEILING(NOW()-A124, 1)</f>
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H2" s="5" t="n">
         <f aca="false">(SUM(D218:D240))*24</f>
@@ -974,7 +977,7 @@
       </c>
       <c r="I2" s="3" t="n">
         <f aca="false">H2/(G2*24)</f>
-        <v>0.00592320261437908</v>
+        <v>0.00580929487179487</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5374,7 +5377,63 @@
         <v>97</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="n">
+        <v>44355</v>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C244" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D244" s="3" t="n">
+        <f aca="false">C244-B244</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E244" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="n">
+        <v>44356</v>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C245" s="2" t="n">
+        <v>0.854166666666667</v>
+      </c>
+      <c r="D245" s="3" t="n">
+        <f aca="false">C245-B245</f>
+        <v>0.0208333333333333</v>
+      </c>
+      <c r="E245" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F245" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="n">
+        <v>44357</v>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="C246" s="2" t="n">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="D246" s="3" t="n">
+        <f aca="false">C246-B246</f>
+        <v>0.03125</v>
+      </c>
+      <c r="E246" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
